--- a/data/DestinationTables.xlsx
+++ b/data/DestinationTables.xlsx
@@ -10990,209 +10990,181 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col width="28.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>ActivityEmissionSourceProviderID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>ProviderName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Hotel Sheraton</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>ÖBB</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Aeroflot</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Verbund</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Wiener Energie</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mercure Hotels</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>DB</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Austrian Airlines</t>
         </is>
       </c>
-      <c r="C9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Taxi Funk</t>
         </is>
       </c>
-      <c r="C10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Flixbus</t>
         </is>
       </c>
-      <c r="C11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Energie Burgenland</t>
         </is>
       </c>
-      <c r="C12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Ostrom</t>
         </is>
       </c>
-      <c r="C13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>EnBW (Energie Baden-Württemberg AG)</t>
         </is>
       </c>
-      <c r="C14" s="8" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Westfalen</t>
         </is>
       </c>
-      <c r="C15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="n"/>
-      <c r="B21" s="8" t="n"/>
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Default Provider</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13223,7 +13195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13444,6 +13416,22 @@
           <t>2025-08-14 16:42:54.366</t>
         </is>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>red bull</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13456,39 +13444,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="18.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="25.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>OrganizationalUnitID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>OrganizationalUnitName</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>CompanyID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>CreatedDate</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>updated_at</t>
         </is>
       </c>
     </row>
@@ -13504,9 +13496,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -13520,9 +13514,11 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -13536,9 +13532,11 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -13552,9 +13550,11 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -13568,9 +13568,11 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -13584,9 +13586,11 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13600,9 +13604,11 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -13616,9 +13622,11 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -13632,9 +13640,11 @@
       <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -13648,11 +13658,421 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="26" t="n">
         <v>45876.33333333334</v>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Head Office</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>head office</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>head office</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Verbund AG</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.957</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.958</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wien Energie</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.968</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.968</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EVN AG</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.979</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Salzburg AG</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.997</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:56.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TIWAG</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.010</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.010</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Energie Steiermark</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.017</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.017</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Linz Strom</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.028</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Energie Graz</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.031</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.031</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Burgenland Energie</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.034</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vorarlberger Energienetze</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.042</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>oekostrom AG</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.047</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Naturkraft</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.050</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.050</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KELAG</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.055</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-16 19:41:57.055</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>office hr</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:05:19.301</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:05:19.301</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-08-17 00:29:22.399</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-17 00:29:22.399</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/DestinationTables.xlsx
+++ b/data/DestinationTables.xlsx
@@ -24,16 +24,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DE1_ActivityEmissionSource'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'DE1_Unit'!$A$1:$C$15</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -65,9 +66,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
+      <b val="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,6 +130,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -179,13 +194,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/data/DestinationTables.xlsx
+++ b/data/DestinationTables.xlsx
@@ -11187,7 +11187,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -11222,7 +11222,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="5" t="n"/>
     </row>
-    <row r="3" hidden="1" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
@@ -11336,7 +11336,7 @@
       <c r="Y4" s="3" t="n"/>
       <c r="Z4" s="3" t="n"/>
     </row>
-    <row r="5" hidden="1" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="Y5" s="5" t="n"/>
       <c r="Z5" s="5" t="n"/>
     </row>
-    <row r="6" hidden="1" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
     </row>
-    <row r="7" hidden="1" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="Y7" s="5" t="n"/>
       <c r="Z7" s="5" t="n"/>
     </row>
-    <row r="8" hidden="1" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
@@ -11488,7 +11488,7 @@
       <c r="Y8" s="3" t="n"/>
       <c r="Z8" s="3" t="n"/>
     </row>
-    <row r="9" hidden="1" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="15" t="n">
         <v>8</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="Y9" s="5" t="n"/>
       <c r="Z9" s="5" t="n"/>
     </row>
-    <row r="10" hidden="1" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="15" t="n">
         <v>9</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="Y10" s="5" t="n"/>
       <c r="Z10" s="5" t="n"/>
     </row>
-    <row r="11" hidden="1" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="15" t="n">
         <v>10</v>
       </c>
@@ -11602,7 +11602,7 @@
       <c r="Y11" s="5" t="n"/>
       <c r="Z11" s="5" t="n"/>
     </row>
-    <row r="12" hidden="1" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="n">
         <v>11</v>
       </c>
@@ -12709,16 +12709,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:C15">
-    <filterColumn colId="1" hiddenButton="0" showButton="1">
-      <filters>
-        <filter val="cubic meters"/>
-        <filter val="euros"/>
-        <filter val="kWh"/>
-        <filter val="us dollars"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
